--- a/ds-sa-chatbot/train_tools/qna/train_data.xlsx
+++ b/ds-sa-chatbot/train_tools/qna/train_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>의도(Intent)</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>답변 코드 기능/참조용</t>
-  </si>
-  <si>
-    <t>답변 코드 디테일/참조용</t>
-  </si>
-  <si>
-    <t>조건 단어/참조용</t>
   </si>
   <si>
     <t>인사</t>
@@ -47,6 +41,9 @@
 반갑습니다. 온더보더입니다.</t>
   </si>
   <si>
+    <t>(채팅 출력으로 처리)</t>
+  </si>
+  <si>
     <t>예약</t>
   </si>
   <si>
@@ -59,13 +56,10 @@
     <t>{B_DT}에 예약 접수 되었습니다.</t>
   </si>
   <si>
-    <t>예약관리</t>
-  </si>
-  <si>
-    <t>예약 창으로 넘어가기</t>
-  </si>
-  <si>
-    <t>"예약", "조정", "변경", "취소", "신청","방문", "미루","못하","미루워","캔슬"</t>
+    <t>완전한 정보를 입력했을 경우 바로 예약(채팅으로 처리)</t>
+  </si>
+  <si>
+    <t>불완전한 정보를 입력했을 경우 예약창으로 이동</t>
   </si>
   <si>
     <t>주문취소</t>
@@ -80,9 +74,6 @@
     <t>{B_FOOD} 장바구니에서 제외되었습니다.</t>
   </si>
   <si>
-    <t>장바구니 구현 필요</t>
-  </si>
-  <si>
     <t>주문</t>
   </si>
   <si>
@@ -98,10 +89,7 @@
     <t>최종 주문하시겠습니까?</t>
   </si>
   <si>
-    <t>예/아니오</t>
-  </si>
-  <si>
-    <t>예/아니오 구현 필요</t>
+    <t>예/아니오 선택창 연결</t>
   </si>
   <si>
     <t>메뉴안내</t>
@@ -113,10 +101,7 @@
     <t>{B_FOOD} 에는 다음과 같은 메뉴가 준비되어 있습니다.</t>
   </si>
   <si>
-    <t>조건부 메뉴판 띄워주기</t>
-  </si>
-  <si>
-    <t>json으로 구현된 메뉴판을 ‘조건부로’ 띄워주는 기능 구현 필요. 여기서 직접 메뉴를 장바구니에 넣는 기능이 필요함</t>
+    <t>메뉴판 json처리, 안되면 채팅 출력으로 처리</t>
   </si>
   <si>
     <t>메뉴판 보여줘</t>
@@ -125,7 +110,7 @@
     <t>메뉴 안내드리겠습니다.</t>
   </si>
   <si>
-    <t>["메뉴판", "전체 메뉴", "매뉴판", "전체"</t>
+    <t>메뉴판 json 처리, 안되면 전체 메뉴판 페이지로 연결</t>
   </si>
   <si>
     <t>메뉴추천</t>
@@ -137,54 +122,24 @@
     <t>3명이서 먹을만한 메뉴 알려줘</t>
   </si>
   <si>
-    <t>메뉴</t>
-  </si>
-  <si>
     <t>가족이서 먹을 메뉴 알려줘 (CV=(가족, 커플, ….))</t>
   </si>
   <si>
-    <t>"추천", "인기", "같이", "키즈", "가족", "커플", "적당", "괜찮", "맛있", "많이", "혼자", "혼밥", "비건", "베지테리언", "채식"]</t>
-  </si>
-  <si>
     <t>{B_FOOD} 가 뭐야?</t>
   </si>
   <si>
     <t>(메뉴 안내)</t>
   </si>
   <si>
-    <t>준비된 답변 연결</t>
-  </si>
-  <si>
-    <t>csv사용하여 구현 예정(김재윤 담당)</t>
-  </si>
-  <si>
     <t>메장문의</t>
   </si>
   <si>
-    <t>FAQ/상담원 연결</t>
-  </si>
-  <si>
-    <t>"문의", "민원", "상담원", "고객", "센터", "서비스","지원","멤버","환불", "비밀번호", "아이디", "회원"</t>
-  </si>
-  <si>
     <t>매장정보</t>
   </si>
   <si>
-    <t>FAQ 출력</t>
-  </si>
-  <si>
-    <t>"주차", "주차장", "교통", "주소", "전화번호", "전화", "매장", "위치", "번호", "어디", "지점", "점포", "식당"</t>
-  </si>
-  <si>
     <t>신세계점 정보 알려줘</t>
   </si>
   <si>
-    <t>매장별 창으로 연결</t>
-  </si>
-  <si>
-    <t>홈페이지 매장별 창으로 연결.</t>
-  </si>
-  <si>
     <t>이벤트정보</t>
   </si>
   <si>
@@ -192,12 +147,6 @@
   </si>
   <si>
     <t>이벤트 정보창 띄워주기</t>
-  </si>
-  <si>
-    <t>홈페이지 이벤트 정보탭으로 연결. 시간이 나면 좀더 해볼 거리가 있음</t>
-  </si>
-  <si>
-    <t>"할인", "혜택", "프로모션", "이벤트", "행사"</t>
   </si>
 </sst>
 </file>
@@ -245,12 +194,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -275,31 +224,46 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -309,38 +273,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -360,8 +327,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff0563c1"/>
     </indexedColors>
   </colors>
@@ -561,17 +528,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -589,7 +556,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -599,10 +565,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -619,7 +585,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -645,7 +610,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -671,7 +635,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -697,7 +660,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -723,7 +685,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -749,7 +710,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -775,7 +735,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -801,7 +760,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -827,7 +785,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -850,12 +807,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -878,7 +835,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -904,7 +860,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -930,7 +885,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -956,7 +910,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -982,7 +935,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1008,7 +960,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1034,7 +985,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1060,7 +1010,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1086,7 +1035,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1112,7 +1060,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1142,7 +1089,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1160,7 +1107,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1170,10 +1116,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1190,7 +1136,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1216,7 +1161,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1242,7 +1186,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1268,7 +1211,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1294,7 +1236,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1320,7 +1261,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1346,7 +1286,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1372,7 +1311,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1398,7 +1336,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1424,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1433,9 +1370,9 @@
     <col min="1" max="2" width="18.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.1719" style="1" customWidth="1"/>
-    <col min="5" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="23.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.1406" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
@@ -1454,314 +1391,274 @@
       <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="3">
         <v>5</v>
-      </c>
-      <c r="G1" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>7</v>
       </c>
     </row>
     <row r="2" ht="38" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" t="s" s="3">
+      <c r="E2" s="7"/>
+      <c r="F2" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="D2" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
     </row>
     <row r="3" ht="38" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="C3" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="D3" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s" s="8">
         <v>14</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s" s="7">
-        <v>17</v>
       </c>
     </row>
     <row r="4" ht="57" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="57" customHeight="1">
+      <c r="A5" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="D5" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="C4" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" ht="19" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" t="s" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" ht="19" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="A6" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s" s="9">
+        <v>22</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" t="s" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="19" customHeight="1">
+      <c r="A7" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" t="s" s="8">
         <v>23</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" t="s" s="7">
+      <c r="D7" t="s" s="9">
+        <v>24</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="33" customHeight="1">
+      <c r="A8" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="D6" t="s" s="8">
+      <c r="B8" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s" s="8">
         <v>27</v>
       </c>
-      <c r="E6" s="9">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s" s="7">
+      <c r="D8" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="G6" t="s" s="7">
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s" s="8">
         <v>29</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" ht="33" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="E7" s="9">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="E8" s="9">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" t="s" s="7">
-        <v>37</v>
       </c>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="E9" s="9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" t="s" s="7">
-        <v>41</v>
+      <c r="A9" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="E9" s="10">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s" s="8">
+        <v>32</v>
       </c>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="A10" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="E10" s="10">
         <v>3</v>
       </c>
-      <c r="F10" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" t="s" s="7">
-        <v>43</v>
+      <c r="F10" t="s" s="8">
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="E11" s="9">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="G11" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="H11" s="10"/>
+      <c r="A11" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s" s="8">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" ht="17" customHeight="1">
-      <c r="A12" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9">
+      <c r="A12" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="E12" s="10">
         <v>4</v>
       </c>
-      <c r="F12" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="G12" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s" s="7">
-        <v>50</v>
+      <c r="F12" t="s" s="8">
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9">
+      <c r="A13" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10">
         <v>4</v>
       </c>
-      <c r="F13" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s" s="7">
-        <v>53</v>
+      <c r="F13" t="s" s="8">
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="H14" s="10"/>
+      <c r="A14" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="G15" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="H15" t="s" s="7">
-        <v>61</v>
+      <c r="A15" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="1">
+      <c r="A16" t="s" s="8">
+        <v>42</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s" s="8">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
